--- a/inst/extdata/disturbances_edtf.xlsx
+++ b/inst/extdata/disturbances_edtf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamenaR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732DCCCC-5FF2-498F-8BFB-46971789EB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A359D56-7CCD-45FF-ACD3-450F736F8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,12 +299,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB45F06"/>
+        <bgColor rgb="FFB45F06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,17 +352,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,1392 +587,1391 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C63"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
         <v>38107</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
         <v>38107</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
         <v>39949</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>40704</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
         <v>40704</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>41392</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
         <v>41392</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>42120</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
         <v>42458</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>42701</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
         <v>42728</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>42786</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
         <v>42786</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>43129</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
         <v>38107</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
         <v>42669</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
         <v>42120</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>42458</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
         <v>38352</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>42561</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>42693</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
         <v>38352</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
         <v>42693</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>42701</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4">
         <v>42701</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>42855</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
         <v>42855</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>43380</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
         <v>38352</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
         <v>38352</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
         <v>38352</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4">
         <v>40097</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4">
         <v>41671</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>41877</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4">
         <v>41877</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>42542</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4">
         <v>41877</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>42542</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
         <v>40097</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
         <v>42659</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>42786</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>43138</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4">
         <v>40674</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>42185</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4">
         <v>39949</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4">
         <v>38352</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4">
         <v>40704</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="4">
         <v>42185</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4">
         <v>42638</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>42701</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
         <v>38352</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
         <v>38352</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4">
         <v>42659</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4">
         <v>42845</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <v>43138</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
         <v>42185</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4">
         <v>39949</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
         <v>39949</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4">
         <v>40704</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4">
         <v>39949</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>43498</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4">
         <v>38352</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4">
         <v>40109</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>42547</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4">
         <v>40109</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4">
         <v>38352</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4">
         <v>40109</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>42547</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4">
         <v>40109</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>42547</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4">
         <v>40109</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>42547</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4">
         <v>42547</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4">
         <v>40109</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="5"/>
+      <c r="G54" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="4">
         <v>42547</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>42823</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4">
         <v>38352</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="4" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4">
         <v>42665</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="5"/>
+      <c r="G57" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4">
         <v>38352</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="4" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4">
         <v>38352</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="4" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4">
         <v>38352</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="4" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="4">
         <v>42638</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="4">
         <v>42661</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4">
         <v>39949</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="4" t="s">
+      <c r="F62" s="5"/>
+      <c r="G62" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4">
         <v>42120</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>42297</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="6" t="s">
         <v>77</v>
       </c>
     </row>
